--- a/survey_data/survey_data_and_results_with_code/Story_Model_Group_results.xlsx
+++ b/survey_data/survey_data_and_results_with_code/Story_Model_Group_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didif\Documents\NTHU Courses\Wireless Multimedia Networking Technologies and Applications\Term Project\VIST_Project\survey_data\survey_data_and_results_with_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB7B68-E9FD-480F-B385-63F78B2EDF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3380522-B86C-4AA1-9F9F-7B7FCEC2441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coherence_CLMM" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Comments" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Comments!$A$1:$E$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Descript!$A$1:$J$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -534,9 +535,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -544,6 +542,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +844,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="A1:H35"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1773,7 +1774,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H35"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2702,7 +2703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -3630,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6836,7 +6839,7 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6882,18 +6885,18 @@
       <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="M1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1">
@@ -6926,28 +6929,28 @@
       <c r="J2">
         <v>1.8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6982,33 +6985,33 @@
       <c r="J3">
         <v>3.1</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f>AVERAGE(J2:J6)</f>
         <v>2.41</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f>AVERAGE(J32:J36)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <f>AVERAGE(J62:J66)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <f>AVERAGE(J17:J21)</f>
         <v>2.6173913043478279</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <f>AVERAGE(J47:J51)</f>
         <v>2.4956521739130442</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <f>AVERAGE(J77:J81)</f>
         <v>2.4173913043478263</v>
       </c>
@@ -7044,33 +7047,33 @@
       <c r="J4">
         <v>1.95</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>AVERAGE(J7:J11)</f>
         <v>3.71</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>AVERAGE(J37:J41)</f>
         <v>3.75</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f>AVERAGE(J67:J71)</f>
         <v>3.5200000000000005</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f>AVERAGE(J22:J26)</f>
         <v>3.9565217391304359</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f>AVERAGE(J52:J56)</f>
         <v>3.8608695652173899</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f>AVERAGE(J82:J86)</f>
         <v>3.7739130434782622</v>
       </c>
@@ -7106,33 +7109,33 @@
       <c r="J5">
         <v>2.35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <f>AVERAGE(J12:J16)</f>
         <v>3.94</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>AVERAGE(J42:J46)</f>
         <v>3.97</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f>AVERAGE(J72:J76)</f>
         <v>3.69</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>AVERAGE(J27:J31)</f>
         <v>3.8086956521739119</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <f>AVERAGE(J57:J61)</f>
         <v>3.6173913043478243</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f>AVERAGE(J87:J91)</f>
         <v>3.6434782608695642</v>
       </c>
@@ -9906,7 +9909,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9917,189 +9920,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.05</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.65</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4.3478260869565202E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.173913043478261</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.78260869565217395</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.60869565217391297</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.39130434782608697</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.13043478260869601</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.39130434782608697</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.47826086956521702</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.173913043478261</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.52173913043478304</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.30434782608695699</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>4.3478260869565202E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.47826086956521702</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.47826086956521702</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10115,7 +10118,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11195,6 +11198,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E63" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
